--- a/샘플데이터/샘플-학생정보데이터.xlsx
+++ b/샘플데이터/샘플-학생정보데이터.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\callor\Documents\workspace\Reference 자료\샘플데이터\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC6BB7D-DA9D-4105-BBA9-B9AF88951F3C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C24C42-6B8B-4E34-BFC2-CB298EA32148}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4890" yWindow="1830" windowWidth="21600" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1657,10 +1657,13 @@
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="17.25" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">

--- a/샘플데이터/샘플-학생정보데이터.xlsx
+++ b/샘플데이터/샘플-학생정보데이터.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\callor\Documents\workspace\Reference 자료\샘플데이터\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C24C42-6B8B-4E34-BFC2-CB298EA32148}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC4B12E-F111-4CA5-92EE-6FE08BEB00A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="학생정보샘플" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
